--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_10_02 17_13_02.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_10_02 17_13_02.xlsx
@@ -4744,13 +4744,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88D2B466-3444-490D-879B-3A66FDD56D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{732BEB7F-23C1-49FE-BDEE-7FA2D4F930E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7076DA9-7752-42D8-B46F-031CF3A83C91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB6B77-B488-4CD5-BE63-27C9EB05ED48}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B0DB05-4F90-44C3-AC71-B01292A35EBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA0315B-C527-4BE1-AD0B-0EFF870F9DCF}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_10_02 17_13_02.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_10_02 17_13_02.xlsx
@@ -4744,13 +4744,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{732BEB7F-23C1-49FE-BDEE-7FA2D4F930E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945FD90C-E647-403F-ABC7-B8C8408C26A2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB6B77-B488-4CD5-BE63-27C9EB05ED48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1701BFA5-7BFE-4601-B227-03D924AE1966}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA0315B-C527-4BE1-AD0B-0EFF870F9DCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC2D5BF-D2B1-46A3-8C4E-E5F2ADC4D0B5}"/>
 </file>